--- a/flask/app/static/files/solicitudes_activas.xlsx
+++ b/flask/app/static/files/solicitudes_activas.xlsx
@@ -506,7 +506,7 @@
         <v>73</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
@@ -541,7 +541,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>001</t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
         <v>73</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>Disco duro Toshiba Canvio 2 TB</t>
+          <t>Drone Parrot Bebop 2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -576,7 +576,7 @@
         <v>44059.5640162037</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>44071.77083333334</v>
+        <v>44063.77083333334</v>
       </c>
       <c r="I5" s="2" t="n"/>
       <c r="J5" s="2" t="n"/>
@@ -585,7 +585,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>002</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         <v>73</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
@@ -608,7 +608,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>Drone Parrot Bebop 2</t>
+          <t>Disco duro Toshiba Canvio 2 TB</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -620,7 +620,7 @@
         <v>44059.5640162037</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>44063.77083333334</v>
+        <v>44071.77083333334</v>
       </c>
       <c r="I6" s="2" t="n"/>
       <c r="J6" s="2" t="n"/>

--- a/flask/app/static/files/solicitudes_activas.xlsx
+++ b/flask/app/static/files/solicitudes_activas.xlsx
@@ -74,9 +74,15 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -374,7 +380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -387,13 +393,15 @@
     <col width="19" customWidth="1" min="3" max="3"/>
     <col width="31" customWidth="1" min="4" max="4"/>
     <col width="30" customWidth="1" min="5" max="5"/>
-    <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="19" customWidth="1" min="7" max="7"/>
-    <col width="19" customWidth="1" min="8" max="8"/>
+    <col width="16" customWidth="1" min="6" max="6"/>
+    <col width="23" customWidth="1" min="7" max="7"/>
+    <col width="11" customWidth="1" min="8" max="8"/>
     <col width="19" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="24" customWidth="1" min="11" max="11"/>
-    <col width="23" customWidth="1" min="12" max="12"/>
+    <col width="19" customWidth="1" min="10" max="10"/>
+    <col width="19" customWidth="1" min="11" max="11"/>
+    <col width="19" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
+    <col width="24" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -425,50 +433,60 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
+          <t>Código de equipo</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>Código sufijo de equipo</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
           <t>Estado</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>Fecha de registro</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
         <is>
           <t>Fecha de inicio</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="K2" s="1" t="inlineStr">
         <is>
           <t>Fecha de término</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="L2" s="1" t="inlineStr">
         <is>
           <t>Fecha de devolución</t>
         </is>
       </c>
-      <c r="J2" s="1" t="inlineStr">
+      <c r="M2" s="1" t="inlineStr">
         <is>
           <t>Fecha de vencimiento</t>
         </is>
       </c>
-      <c r="K2" s="1" t="inlineStr">
+      <c r="N2" s="1" t="inlineStr">
         <is>
           <t>Cantidad de renovaciones</t>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t>Código sufijo de equipo</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>19889608K</t>
+          <t>19988806K</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -478,35 +496,45 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>Drone Parrot Bebop 2</t>
+          <t>Disco duro Toshiba Canvio 2 TB</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>Por retirar</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
+          <t>AA431</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>En posesión</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>44059.5640162037</v>
+      </c>
       <c r="J3" s="3" t="n">
-        <v>44063.77083333334</v>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2" t="inlineStr">
-        <is>
-          <t>003</t>
-        </is>
+        <v>44059.5640162037</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>44078.77083333334</v>
+      </c>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
@@ -515,252 +543,144 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Toro</t>
+          <t>Sebastián Ignacio Toro Severino</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>Drone Parrot Bebop 2</t>
+          <t>Disco duro Toshiba Canvio 2 TB</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>AA431</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>015</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>En posesión</t>
         </is>
       </c>
-      <c r="G4" s="3" t="n">
-        <v>44059.5640162037</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>44063.77083333334</v>
-      </c>
-      <c r="I4" s="2" t="n"/>
-      <c r="J4" s="2" t="n"/>
-      <c r="K4" s="2" t="n">
+      <c r="I4" s="3" t="n">
+        <v>44059.52974537037</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>44059.53171296296</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>44071.77083333334</v>
+      </c>
+      <c r="L4" s="2" t="n"/>
+      <c r="M4" s="2" t="n"/>
+      <c r="N4" s="2" t="n">
         <v>0</v>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19988806K</t>
+          <t>198182354</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Toro</t>
+          <t>Víctor Esteban Sánchez Ulloa</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>Drone Parrot Bebop 2</t>
+          <t>Celular Samsung Galaxy S4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>AAD832</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>018</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>En posesión</t>
         </is>
       </c>
-      <c r="G5" s="3" t="n">
-        <v>44059.5640162037</v>
-      </c>
-      <c r="H5" s="3" t="n">
-        <v>44063.77083333334</v>
-      </c>
-      <c r="I5" s="2" t="n"/>
-      <c r="J5" s="2" t="n"/>
-      <c r="K5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>002</t>
-        </is>
+      <c r="I5" s="3" t="n">
+        <v>44051.93928240741</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>44051.94155092593</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>44155.77083333334</v>
+      </c>
+      <c r="L5" s="2" t="n"/>
+      <c r="M5" s="2" t="n"/>
+      <c r="N5" s="2" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>228</v>
+        <v>156</v>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>19988806K</t>
+          <t>198182354</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Toro</t>
+          <t>Víctor Esteban Sánchez Ulloa</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>Disco duro Toshiba Canvio 2 TB</t>
+          <t>Router TP-LONK TL-WN722N</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>En posesión</t>
-        </is>
-      </c>
-      <c r="G6" s="3" t="n">
-        <v>44059.5640162037</v>
-      </c>
-      <c r="H6" s="3" t="n">
-        <v>44071.77083333334</v>
-      </c>
-      <c r="I6" s="2" t="n"/>
+          <t>AAA351</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>Por retirar</t>
+        </is>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>44044.14667824074</v>
+      </c>
       <c r="J6" s="2" t="n"/>
-      <c r="K6" s="2" t="n">
+      <c r="K6" s="2" t="n"/>
+      <c r="L6" s="2" t="n"/>
+      <c r="M6" s="3" t="n">
+        <v>44070.77083333334</v>
+      </c>
+      <c r="N6" s="2" t="n">
         <v>0</v>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>223</v>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>19988806K</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>Sebastián Toro</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>Disco duro Toshiba Canvio 2 TB</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>En posesión</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="n">
-        <v>44059.53171296296</v>
-      </c>
-      <c r="H7" s="3" t="n">
-        <v>44071.77083333334</v>
-      </c>
-      <c r="I7" s="2" t="n"/>
-      <c r="J7" s="2" t="n"/>
-      <c r="K7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>015</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>199</v>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>198182354</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>Víctor Esteban Sánchez Ulloa</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>Celular Samsung Galaxy S4</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>En posesión</t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="n">
-        <v>44051.94155092593</v>
-      </c>
-      <c r="H8" s="3" t="n">
-        <v>44155.77083333334</v>
-      </c>
-      <c r="I8" s="2" t="n"/>
-      <c r="J8" s="2" t="n"/>
-      <c r="K8" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>018</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>156</v>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>198182354</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>Víctor Esteban Sánchez Ulloa</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>Router TP-LONK TL-WN722N</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>Por retirar</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="n"/>
-      <c r="H9" s="2" t="n"/>
-      <c r="I9" s="2" t="n"/>
-      <c r="J9" s="3" t="n">
-        <v>44070.77083333334</v>
-      </c>
-      <c r="K9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>002</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/flask/app/static/files/solicitudes_activas.xlsx
+++ b/flask/app/static/files/solicitudes_activas.xlsx
@@ -380,7 +380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,8 +391,8 @@
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="13" customWidth="1" min="2" max="2"/>
     <col width="19" customWidth="1" min="3" max="3"/>
-    <col width="31" customWidth="1" min="4" max="4"/>
-    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="28" customWidth="1" min="4" max="4"/>
+    <col width="31" customWidth="1" min="5" max="5"/>
     <col width="16" customWidth="1" min="6" max="6"/>
     <col width="23" customWidth="1" min="7" max="7"/>
     <col width="11" customWidth="1" min="8" max="8"/>
@@ -479,10 +479,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>228</v>
+        <v>272</v>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
@@ -491,50 +491,48 @@
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Ignacio Toro Severino</t>
+          <t>Sebastián Toro</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>Disco duro Toshiba Canvio 2 TB</t>
+          <t>Placa Raspberry Raspberry Pi B+</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>AA431</t>
+          <t>AAA192</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>020</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>En posesión</t>
+          <t>Por retirar</t>
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>44059.5640162037</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>44059.5640162037</v>
-      </c>
-      <c r="K3" s="3" t="n">
-        <v>44078.77083333334</v>
-      </c>
+        <v>44068.00587962963</v>
+      </c>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
+      <c r="M3" s="3" t="n">
+        <v>44068.77083333334</v>
+      </c>
       <c r="N3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
@@ -543,7 +541,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Ignacio Toro Severino</t>
+          <t>Sebastián Toro</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -558,7 +556,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>015</t>
+          <t>006</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -567,50 +565,50 @@
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>44059.52974537037</v>
+        <v>44068.00587962963</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>44059.53171296296</v>
+        <v>44068.00895833333</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>44071.77083333334</v>
+        <v>44075.77083333334</v>
       </c>
       <c r="L4" s="2" t="n"/>
       <c r="M4" s="2" t="n"/>
       <c r="N4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>199</v>
+        <v>253</v>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>198182354</t>
+          <t>19988806K</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Víctor Esteban Sánchez Ulloa</t>
+          <t>Sebastián Toro</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>Celular Samsung Galaxy S4</t>
+          <t>Notebook Asus 636-5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>AAD832</t>
+          <t>ZZZZZZ</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>018</t>
+          <t>001</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -619,50 +617,50 @@
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>44051.93928240741</v>
+        <v>44066.77841435185</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>44051.94155092593</v>
+        <v>44068.00912037037</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>44155.77083333334</v>
+        <v>44075.77083333334</v>
       </c>
       <c r="L5" s="2" t="n"/>
       <c r="M5" s="2" t="n"/>
       <c r="N5" s="2" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>156</v>
+        <v>252</v>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>198182354</t>
+          <t>19988806K</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>Víctor Esteban Sánchez Ulloa</t>
+          <t>Sebastián Toro</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>Router TP-LONK TL-WN722N</t>
+          <t>Notebook Asus 636-5</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>AAA351</t>
+          <t>ZZZZZZ</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -671,15 +669,169 @@
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>44044.14667824074</v>
+        <v>44066.77841435185</v>
       </c>
       <c r="J6" s="2" t="n"/>
       <c r="K6" s="2" t="n"/>
       <c r="L6" s="2" t="n"/>
       <c r="M6" s="3" t="n">
+        <v>44068.77083333334</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>19988806K</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>Sebastián Toro</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>Disco duro Toshiba Canvio 2 TB</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>AA431</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>015</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>En posesión</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>44059.52974537037</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>44059.53171296296</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>44071.77083333334</v>
+      </c>
+      <c r="L7" s="2" t="n"/>
+      <c r="M7" s="2" t="n"/>
+      <c r="N7" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>198182354</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>Víctor Esteban Sánchez Ulloa</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Celular Samsung Galaxy S4</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>AAD832</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>018</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>En posesión</t>
+        </is>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>44051.93928240741</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>44051.94155092593</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>44155.77083333334</v>
+      </c>
+      <c r="L8" s="2" t="n"/>
+      <c r="M8" s="2" t="n"/>
+      <c r="N8" s="2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>198182354</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>Víctor Esteban Sánchez Ulloa</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>Router TP-LONK TL-WN722N</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>AAA351</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>Por retirar</t>
+        </is>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>44044.14667824074</v>
+      </c>
+      <c r="J9" s="2" t="n"/>
+      <c r="K9" s="2" t="n"/>
+      <c r="L9" s="2" t="n"/>
+      <c r="M9" s="3" t="n">
         <v>44070.77083333334</v>
       </c>
-      <c r="N6" s="2" t="n">
+      <c r="N9" s="2" t="n">
         <v>0</v>
       </c>
     </row>
